--- a/src/test/resources/testdata/LoginData.xlsx
+++ b/src/test/resources/testdata/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\IdeaProjects\untitled\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C393A9CE-41CD-474C-8301-17D712A01E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EE7F26-00BB-44D1-A219-358BF730C40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{28A70E96-EA67-4D7F-AE50-0DF70E91701B}"/>
   </bookViews>
@@ -33,18 +33,12 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Annu@gmail.com</t>
-  </si>
-  <si>
     <t>patil@gmail.com</t>
   </si>
   <si>
     <t>demo@gmail.com</t>
   </si>
   <si>
-    <t>demo1</t>
-  </si>
-  <si>
     <t>demo2</t>
   </si>
   <si>
@@ -55,6 +49,12 @@
   </si>
   <si>
     <t>An@123456789</t>
+  </si>
+  <si>
+    <t>testuser@gmail.com</t>
+  </si>
+  <si>
+    <t>testuser</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,34 +435,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -472,6 +472,7 @@
     <hyperlink ref="A4" r:id="rId3" xr:uid="{7F57E1D7-C6E5-4EE8-B74D-0053F427EBD2}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{086B3CBA-4474-4F54-99D2-5FDED979FE31}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{D69DF4A6-59E9-43D8-8EAC-FC5167B8E1C4}"/>
+    <hyperlink ref="B2" r:id="rId6" display="An@123456789" xr:uid="{B6633436-887B-4511-B3EC-1FAC7CC4B33C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
